--- a/DateBase/orders/Nha Thu_2025-7-16.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-16.xlsx
@@ -924,6 +924,9 @@
       <c r="G2" t="str">
         <v>0571520151515151551511215555101541285022151420351010151551010301051020551010101265</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
